--- a/DATA_goal/Junction_Flooding_196.xlsx
+++ b/DATA_goal/Junction_Flooding_196.xlsx
@@ -454,7 +454,7 @@
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
@@ -655,103 +655,103 @@
         <v>41628.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.2</v>
+        <v>2.22</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.24</v>
+        <v>1.52</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>46.64</v>
+        <v>4.66</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>38.57</v>
+        <v>3.86</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.47</v>
+        <v>1.75</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>57.64</v>
+        <v>5.76</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>26.88</v>
+        <v>2.69</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.39</v>
+        <v>1.14</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.52</v>
+        <v>1.85</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.39</v>
+        <v>1.94</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.37</v>
+        <v>1.74</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.41</v>
+        <v>2.44</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.57</v>
+        <v>1.46</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>257.04</v>
+        <v>25.7</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>48.36</v>
+        <v>4.84</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>32.04</v>
+        <v>3.2</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>28.72</v>
+        <v>2.87</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.16</v>
+        <v>1.42</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.74</v>
+        <v>1.27</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.91</v>
+        <v>1.49</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.16</v>
+        <v>1.92</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>50.83</v>
+        <v>5.08</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.9</v>
+        <v>0.89</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.04</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41628.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>19.62</v>
+        <v>1.96</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.24</v>
+        <v>1.62</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.33</v>
+        <v>0.73</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>31.76</v>
+        <v>3.18</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.29</v>
+        <v>1.13</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.76</v>
+        <v>0.48</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.23</v>
+        <v>0.72</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.93</v>
+        <v>0.79</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.18</v>
+        <v>0.82</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.35</v>
+        <v>0.23</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.29</v>
+        <v>0.73</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.22</v>
+        <v>1.02</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.37</v>
+        <v>0.64</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>103.71</v>
+        <v>10.37</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>20.55</v>
+        <v>2.06</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.25</v>
+        <v>0.73</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.86</v>
+        <v>1.49</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.95</v>
+        <v>0.59</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>28.8</v>
+        <v>2.88</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.66</v>
+        <v>0.37</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41628.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.47</v>
+        <v>1.55</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.17</v>
+        <v>1.12</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>33.23</v>
+        <v>3.32</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>27.48</v>
+        <v>2.75</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.17</v>
+        <v>1.22</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>46.15</v>
+        <v>4.62</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>18.73</v>
+        <v>1.87</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.3</v>
+        <v>1.23</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13.43</v>
+        <v>1.34</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>14.02</v>
+        <v>1.4</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.89</v>
+        <v>0.39</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>17.13</v>
+        <v>1.71</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.31</v>
+        <v>1.03</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>176.93</v>
+        <v>17.69</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>33.81</v>
+        <v>3.38</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.17</v>
+        <v>1.12</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>22.56</v>
+        <v>2.26</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.08</v>
+        <v>1.21</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.45</v>
+        <v>0.14</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>22.35</v>
+        <v>2.24</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.869999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.85</v>
+        <v>0.89</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>14.02</v>
+        <v>1.4</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>41.53</v>
+        <v>4.15</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.23</v>
+        <v>0.62</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.97</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41628.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.56</v>
+        <v>2.06</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>44.41</v>
+        <v>4.44</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>36.73</v>
+        <v>3.67</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.18</v>
+        <v>1.62</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>62.1</v>
+        <v>6.21</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>24.9</v>
+        <v>2.49</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.49</v>
+        <v>1.65</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.92</v>
+        <v>1.79</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.8</v>
+        <v>1.88</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.09</v>
+        <v>1.61</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.88</v>
+        <v>2.29</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.57</v>
+        <v>1.36</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>237.61</v>
+        <v>23.76</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>44.99</v>
+        <v>4.5</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.85</v>
+        <v>1.49</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>30.21</v>
+        <v>3.02</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>16.06</v>
+        <v>1.61</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.99</v>
+        <v>0.2</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>30.23</v>
+        <v>3.02</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.69</v>
+        <v>1.37</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.77</v>
+        <v>1.88</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>56.19</v>
+        <v>5.62</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.57</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41628.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>17.58</v>
+        <v>1.76</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>12.94</v>
+        <v>1.29</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>38</v>
+        <v>3.8</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>31.42</v>
+        <v>3.14</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>13.84</v>
+        <v>1.38</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>54.98</v>
+        <v>5.5</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>21.29</v>
+        <v>2.13</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>14.1</v>
+        <v>1.41</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>15.35</v>
+        <v>1.53</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>16.09</v>
+        <v>1.61</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.42</v>
+        <v>0.44</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>13.76</v>
+        <v>1.38</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>19.58</v>
+        <v>1.96</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>11.6</v>
+        <v>1.16</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>202.13</v>
+        <v>20.21</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>38.52</v>
+        <v>3.85</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>12.7</v>
+        <v>1.27</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>25.87</v>
+        <v>2.59</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>13.75</v>
+        <v>1.37</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.71</v>
+        <v>0.17</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>26.47</v>
+        <v>2.65</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>16.07</v>
+        <v>1.61</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>49.81</v>
+        <v>4.98</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>7.15</v>
+        <v>0.71</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>15.88</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41628.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>2.4</v>
+        <v>0.24</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>5.01</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>4.14</v>
+        <v>0.41</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>14.39</v>
+        <v>1.44</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.91</v>
+        <v>0.29</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>1.79</v>
+        <v>0.18</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="N7" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z7" s="4" t="n">
         <v>0.63</v>
       </c>
-      <c r="O7" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>21.39</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>6.33</v>
-      </c>
       <c r="AA7" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>1.46</v>
+        <v>0.15</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>2.15</v>
+        <v>0.22</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41628.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>7.49</v>
+        <v>0.75</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>5.44</v>
+        <v>0.54</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>16.12</v>
+        <v>1.61</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>21.8</v>
+        <v>2.18</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>5.95</v>
+        <v>0.59</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>6.56</v>
+        <v>0.66</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>6.81</v>
+        <v>0.68</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>8.27</v>
+        <v>0.83</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>81.90000000000001</v>
+        <v>8.19</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>16.27</v>
+        <v>1.63</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>10.83</v>
+        <v>1.08</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>4.78</v>
+        <v>0.48</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>4.28</v>
+        <v>0.43</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>6.84</v>
+        <v>0.68</v>
       </c>
       <c r="AE8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AG8" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="AF8" s="4" t="n">
-        <v>19.38</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>3.01</v>
-      </c>
       <c r="AH8" s="4" t="n">
-        <v>6.77</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41628.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>22.48</v>
+        <v>2.25</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>16.72</v>
+        <v>1.67</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>48.75</v>
+        <v>4.88</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>40.3</v>
+        <v>4.03</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>17.69</v>
+        <v>1.77</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>64.87</v>
+        <v>6.49</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>27.22</v>
+        <v>2.72</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>12.15</v>
+        <v>1.22</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>18.14</v>
+        <v>1.81</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>19.65</v>
+        <v>1.97</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>20.67</v>
+        <v>2.07</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.65</v>
+        <v>0.57</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>17.6</v>
+        <v>1.76</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>25.09</v>
+        <v>2.51</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>14.71</v>
+        <v>1.47</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>260.49</v>
+        <v>26.05</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>49.13</v>
+        <v>4.91</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>16.24</v>
+        <v>1.62</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>33.15</v>
+        <v>3.31</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>32.21</v>
+        <v>3.22</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>14.35</v>
+        <v>1.43</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>12.66</v>
+        <v>1.27</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>20.61</v>
+        <v>2.06</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>58.74</v>
+        <v>5.87</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>9.19</v>
+        <v>0.92</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>20.3</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41628.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>6.42</v>
+        <v>0.64</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>18.88</v>
+        <v>1.89</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>15.6</v>
+        <v>1.56</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>6.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>30.98</v>
+        <v>3.1</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>6.99</v>
+        <v>0.7</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>7.66</v>
+        <v>0.77</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>6.84</v>
+        <v>0.68</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>96.84999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>19.31</v>
+        <v>1.93</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>12.97</v>
+        <v>1.3</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>14.57</v>
+        <v>1.46</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>5.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>5.83</v>
+        <v>0.58</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>28.37</v>
+        <v>2.84</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_196.xlsx
+++ b/DATA_goal/Junction_Flooding_196.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,10 +443,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -454,7 +454,7 @@
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
@@ -463,8 +463,8 @@
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41628.34027777778</v>
+        <v>44877.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.66</v>
+        <v>4.45</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.86</v>
+        <v>3.66</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.76</v>
+        <v>5.42</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.69</v>
+        <v>2.56</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="L2" s="4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M2" s="4" t="n">
         <v>1.85</v>
       </c>
-      <c r="M2" s="4" t="n">
-        <v>1.94</v>
-      </c>
       <c r="N2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.7</v>
+        <v>24.44</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.84</v>
+        <v>4.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.87</v>
+        <v>2.69</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.08</v>
+        <v>4.79</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41628.34722222222</v>
+        <v>44877.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.72</v>
       </c>
       <c r="C3" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M3" s="4" t="n">
         <v>0.63</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="L3" s="4" t="n">
+      <c r="N3" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="P3" s="4" t="n">
         <v>0.79</v>
       </c>
-      <c r="M3" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.02</v>
-      </c>
       <c r="Q3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.37</v>
+        <v>7.85</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.06</v>
+        <v>1.6</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.67</v>
+        <v>0.52</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.35</v>
+        <v>1.04</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.55</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.49</v>
+        <v>1.18</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.59</v>
+        <v>0.46</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.55</v>
+        <v>0.43</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.82</v>
+        <v>0.63</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.88</v>
+        <v>2.36</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.37</v>
+        <v>0.28</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.84</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41628.35416666666</v>
+        <v>44877.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.55</v>
+        <v>0.29</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.12</v>
+        <v>0.17</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.32</v>
+        <v>0.59</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.75</v>
+        <v>0.48</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.22</v>
+        <v>0.23</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.62</v>
+        <v>1.21</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.87</v>
+        <v>0.35</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.82</v>
+        <v>0.14</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.23</v>
+        <v>0.2</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.34</v>
+        <v>0.25</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.4</v>
+        <v>0.24</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.21</v>
+        <v>0.23</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.71</v>
+        <v>0.31</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.03</v>
+        <v>0.22</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>17.69</v>
+        <v>2.7</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.38</v>
+        <v>0.65</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.12</v>
+        <v>0.21</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.26</v>
+        <v>0.41</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.21</v>
+        <v>0.23</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.24</v>
+        <v>0.53</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.18</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.18</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.04</v>
+        <v>0.21</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.4</v>
+        <v>0.25</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.15</v>
+        <v>1.12</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.1</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.4</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41628.36111111111</v>
+        <v>44877.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.51</v>
+        <v>1.3</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.44</v>
+        <v>3.84</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.67</v>
+        <v>3.17</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.21</v>
+        <v>4.95</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.49</v>
+        <v>2.15</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.79</v>
+        <v>1.55</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.45</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.29</v>
+        <v>1.97</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>23.76</v>
+        <v>20.44</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.5</v>
+        <v>3.88</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.49</v>
+        <v>1.28</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.02</v>
+        <v>2.6</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>0.2</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.02</v>
+        <v>2.45</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.37</v>
+        <v>1.19</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.62</v>
+        <v>4.46</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.72</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.86</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41628.36805555555</v>
+        <v>44877.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.76</v>
+        <v>24.5</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.29</v>
+        <v>18.14</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.1</v>
+        <v>1.25</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.8</v>
+        <v>53.1</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.14</v>
+        <v>43.82</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.38</v>
+        <v>19.28</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>5.5</v>
+        <v>73.67</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.13</v>
+        <v>29.67</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>13.21</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.41</v>
+        <v>19.68</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.53</v>
+        <v>21.38</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.61</v>
+        <v>22.51</v>
       </c>
       <c r="N6" s="4" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>27.32</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>284.54</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>53.61</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>35.98</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="AE6" s="4" t="n">
         <v>0.44</v>
       </c>
-      <c r="O6" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>20.21</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF6" s="4" t="n">
-        <v>4.98</v>
+        <v>66.92</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.71</v>
+        <v>9.99</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41628.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41628.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41628.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>26.05</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>2.03</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41628.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41628.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>20.66</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>15.39</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>44.81</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>37.04</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>16.26</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>60.91</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>25.01</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>18.06</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>16.17</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>238.75</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>45.15</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>14.92</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>30.48</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>29.92</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>13.18</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>18.94</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>55.09</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>18.66</v>
+        <v>22.13</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_196.xlsx
+++ b/DATA_goal/Junction_Flooding_196.xlsx
@@ -443,10 +443,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -463,8 +463,8 @@
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
@@ -655,103 +655,103 @@
         <v>44877.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.11</v>
+        <v>21.14</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.09</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.45</v>
+        <v>44.47</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.66</v>
+        <v>36.59</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.66</v>
+        <v>16.64</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.42</v>
+        <v>54.16</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.56</v>
+        <v>25.6</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.08</v>
+        <v>10.79</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.66</v>
+        <v>16.57</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.66</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.45</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.65</v>
+        <v>16.54</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.32</v>
+        <v>23.19</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.97</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>24.44</v>
+        <v>244.44</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.6</v>
+        <v>46.03</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.53</v>
+        <v>15.27</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.04</v>
+        <v>30.4</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.58</v>
+        <v>15.79</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.69</v>
+        <v>26.88</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.35</v>
+        <v>13.49</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.18</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.25</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.82</v>
+        <v>18.23</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.79</v>
+        <v>47.88</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.43</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.91</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44877.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.21</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.09</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.37</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.67</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.57</v>
+        <v>25.74</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.73</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.44</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.11</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.27</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.86</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>7.85</v>
+        <v>78.55</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.6</v>
+        <v>15.98</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.35</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.83</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.31</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.5</v>
+        <v>5.02</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.36</v>
+        <v>23.6</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44877.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.79</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.27</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.14</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.49</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.39</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.26</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.11</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>2.7</v>
+        <v>27.04</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.1</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.25</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.15</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44877.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.78</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.3</v>
+        <v>13.01</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.84</v>
+        <v>38.41</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.17</v>
+        <v>31.66</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.95</v>
+        <v>49.54</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.15</v>
+        <v>21.52</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.49</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.42</v>
+        <v>14.18</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.49</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.26</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.91</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.97</v>
+        <v>19.73</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.77</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>20.44</v>
+        <v>204.39</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.88</v>
+        <v>38.76</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.84</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.6</v>
+        <v>25.98</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.82</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.04</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.45</v>
+        <v>24.49</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.1</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.86</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.62</v>
+        <v>16.22</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.46</v>
+        <v>44.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.61</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_196.xlsx
+++ b/DATA_goal/Junction_Flooding_196.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,38 +443,38 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -655,100 +655,100 @@
         <v>44877.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>21.14</v>
+        <v>21.139</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.41</v>
+        <v>14.405</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.09</v>
+        <v>4.093</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>44.47</v>
+        <v>44.473</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>36.59</v>
+        <v>36.592</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>16.64</v>
+        <v>16.635</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>54.16</v>
+        <v>54.157</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>25.6</v>
+        <v>25.596</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.79</v>
+        <v>10.793</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>16.57</v>
+        <v>16.568</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>17.66</v>
+        <v>17.656</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.45</v>
+        <v>18.451</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.31</v>
+        <v>5.311</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.54</v>
+        <v>16.542</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23.19</v>
+        <v>23.194</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.97</v>
+        <v>13.966</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.73</v>
+        <v>3.726</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.45</v>
+        <v>2.455</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>244.44</v>
+        <v>244.445</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>46.03</v>
+        <v>46.035</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.27</v>
+        <v>15.269</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>30.4</v>
+        <v>30.403</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15.79</v>
+        <v>15.788</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.61</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>26.88</v>
+        <v>26.878</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.49</v>
+        <v>13.487</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.18</v>
+        <v>12.177</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.25</v>
+        <v>14.251</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.23</v>
+        <v>18.232</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>47.88</v>
+        <v>47.882</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.43</v>
+        <v>8.427</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>19.09</v>
@@ -759,103 +759,103 @@
         <v>44877.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.21</v>
+        <v>7.206</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.71</v>
+        <v>4.714</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>1.5</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>15.09</v>
+        <v>15.086</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.37</v>
+        <v>12.371</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.67</v>
+        <v>5.672</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>25.74</v>
+        <v>25.745</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.73</v>
+        <v>8.726000000000001</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>3.62</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.44</v>
+        <v>5.436</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>6.11</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.27</v>
+        <v>6.268</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.82</v>
+        <v>1.817</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.64</v>
+        <v>5.639</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.86</v>
+        <v>7.864</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.04</v>
+        <v>5.035</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.53</v>
+        <v>1.531</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.8</v>
+        <v>0.803</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>78.55</v>
+        <v>78.545</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>15.98</v>
+        <v>15.982</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.21</v>
+        <v>5.205</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.35</v>
+        <v>10.354</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.52</v>
+        <v>5.516</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.07</v>
+        <v>1.066</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>11.83</v>
+        <v>11.826</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.6</v>
+        <v>4.598</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.31</v>
+        <v>4.308</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.02</v>
+        <v>5.017</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.28</v>
+        <v>6.283</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>23.6</v>
+        <v>23.601</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.77</v>
+        <v>2.771</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.51</v>
+        <v>6.509</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44877.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.88</v>
+        <v>2.883</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.71</v>
+        <v>1.707</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.867</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.9</v>
+        <v>5.904</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.79</v>
+        <v>4.787</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.27</v>
+        <v>2.269</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>12.14</v>
+        <v>12.141</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>3.49</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.39</v>
+        <v>1.393</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.02</v>
+        <v>2.017</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.45</v>
+        <v>2.453</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.43</v>
+        <v>2.434</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.733</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.26</v>
+        <v>2.256</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.11</v>
+        <v>3.108</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>2.17</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.961</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.419</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.04</v>
+        <v>27.043</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>6.51</v>
+        <v>6.508</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.08</v>
+        <v>2.082</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>4.1</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.25</v>
+        <v>2.253</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.555</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>5.26</v>
+        <v>5.263</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.84</v>
+        <v>1.839</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.81</v>
+        <v>1.813</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.09</v>
+        <v>2.095</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.49</v>
+        <v>2.486</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>11.15</v>
+        <v>11.153</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.035</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.61</v>
+        <v>2.606</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>16.05</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44877.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>18.14</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>43.82</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>19.28</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>73.67</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>29.67</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>19.68</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>21.38</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>22.51</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>27.32</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>284.54</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>53.61</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>19.07</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>35.98</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>16.26</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>22.43</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>66.92</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>22.13</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_196.xlsx
+++ b/DATA_goal/Junction_Flooding_196.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +475,7 @@
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,94 +967,94 @@
         <v>44877.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.78</v>
+        <v>17.776</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.01</v>
+        <v>13.014</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.15</v>
+        <v>1.151</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>38.41</v>
+        <v>38.407</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>31.66</v>
+        <v>31.664</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.99</v>
+        <v>13.989</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>49.54</v>
+        <v>49.544</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>21.52</v>
+        <v>21.524</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.49</v>
+        <v>9.494</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.18</v>
+        <v>14.176</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.49</v>
+        <v>15.494</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.26</v>
+        <v>16.259</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.47</v>
+        <v>4.466</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.91</v>
+        <v>13.911</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>19.73</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.77</v>
+        <v>11.772</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.839</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.754</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>204.39</v>
+        <v>204.391</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>38.76</v>
+        <v>38.759</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>12.84</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>25.98</v>
+        <v>25.981</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.82</v>
+        <v>13.816</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>2.04</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.49</v>
+        <v>24.487</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.34</v>
+        <v>11.342</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>10.1</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.86</v>
+        <v>11.862</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.22</v>
+        <v>16.221</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>44.61</v>
@@ -1063,7 +1063,111 @@
         <v>7.2</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.05</v>
+        <v>16.053</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44877.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>43.82</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>73.67</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>29.67</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>27.32</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>284.54</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>53.61</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>35.98</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>66.92</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>22.13</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_196.xlsx
+++ b/DATA_goal/Junction_Flooding_196.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +475,7 @@
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,94 +967,94 @@
         <v>44877.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.776</v>
+        <v>17.78</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.014</v>
+        <v>13.01</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.151</v>
+        <v>1.15</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>38.407</v>
+        <v>38.41</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>31.664</v>
+        <v>31.66</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.989</v>
+        <v>13.99</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>49.544</v>
+        <v>49.54</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>21.524</v>
+        <v>21.52</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.494</v>
+        <v>9.49</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.176</v>
+        <v>14.18</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.494</v>
+        <v>15.49</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.259</v>
+        <v>16.26</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.466</v>
+        <v>4.47</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.911</v>
+        <v>13.91</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>19.73</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.772</v>
+        <v>11.77</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.839</v>
+        <v>0.84</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.754</v>
+        <v>0.75</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>204.391</v>
+        <v>204.39</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>38.759</v>
+        <v>38.76</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>12.84</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>25.981</v>
+        <v>25.98</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.816</v>
+        <v>13.82</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>2.04</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.487</v>
+        <v>24.49</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.342</v>
+        <v>11.34</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>10.1</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.862</v>
+        <v>11.86</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.221</v>
+        <v>16.22</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>44.61</v>
@@ -1063,111 +1063,7 @@
         <v>7.2</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.053</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44877.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>18.14</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>43.82</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>19.28</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>73.67</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>29.67</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>19.68</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>21.38</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>22.51</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>27.32</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>284.54</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>53.61</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>19.07</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>35.98</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>13.84</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>16.26</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>22.43</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>66.92</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>22.13</v>
+        <v>16.05</v>
       </c>
     </row>
   </sheetData>
